--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=no-disease-found for app=Mediktor.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=no-disease-found for app=Mediktor.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.227</v>
+        <v>0.282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.015</v>
+        <v>0.055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124</v>
+        <v>0.234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205</v>
+        <v>0.143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.037</v>
+        <v>0.014</v>
       </c>
       <c r="G4" t="n">
-        <v>0.191</v>
+        <v>0.118</v>
       </c>
       <c r="H4" t="n">
-        <v>0.212</v>
+        <v>0.185</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="J4" t="n">
-        <v>0.038</v>
+        <v>0.113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.303</v>
+        <v>0.319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.291</v>
+        <v>0.317</v>
       </c>
       <c r="N4" t="n">
-        <v>0.424</v>
+        <v>0.271</v>
       </c>
       <c r="O4" t="n">
-        <v>0.055</v>
+        <v>0.022</v>
       </c>
       <c r="P4" t="n">
-        <v>0.234</v>
+        <v>0.149</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.591</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.174</v>
+        <v>0.221</v>
       </c>
       <c r="S4" t="n">
-        <v>0.417</v>
+        <v>0.47</v>
       </c>
       <c r="T4" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.341</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.307</v>
-      </c>
       <c r="AO4" t="n">
-        <v>0.71</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.909</v>
+        <v>0.794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264</v>
+        <v>0.163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.514</v>
+        <v>0.404</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.909</v>
+        <v>0.236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.953</v>
+        <v>0.486</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.794</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="K5" t="n">
-        <v>0.636</v>
+        <v>0.618</v>
       </c>
       <c r="L5" t="n">
-        <v>0.231</v>
+        <v>0.236</v>
       </c>
       <c r="M5" t="n">
-        <v>0.481</v>
+        <v>0.486</v>
       </c>
       <c r="N5" t="n">
-        <v>1.364</v>
+        <v>0.824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.413</v>
+        <v>0.145</v>
       </c>
       <c r="P5" t="n">
-        <v>0.643</v>
+        <v>0.381</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.727</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.198</v>
+        <v>0.247</v>
       </c>
       <c r="S5" t="n">
-        <v>0.445</v>
+        <v>0.497</v>
       </c>
       <c r="T5" t="n">
-        <v>0.727</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>0.744</v>
+        <v>0.247</v>
       </c>
       <c r="V5" t="n">
-        <v>0.862</v>
+        <v>0.497</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.824</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.909</v>
+        <v>0.794</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.264</v>
+        <v>0.163</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.514</v>
+        <v>0.404</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0.794</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.545</v>
+        <v>0.163</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.739</v>
+        <v>0.404</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.727</v>
+        <v>2.618</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.182</v>
+        <v>0.029</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.426</v>
+        <v>0.169</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.727</v>
+        <v>0.735</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0.912</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.284</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.909</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.363</v>
+        <v>0.416</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.34</v>
+        <v>0.232</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.41</v>
+        <v>0.421</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.647</v>
+        <v>0.408</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.652</v>
+        <v>0.528</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.464</v>
+        <v>0.385</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.662</v>
+        <v>0.546</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.27</v>
+        <v>0.228</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.376</v>
+        <v>2.33</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.727</v>
+        <v>0.697</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.844</v>
+        <v>0.784</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.792</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.574</v>
+        <v>0.479</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.945</v>
+        <v>0.585</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.695</v>
+        <v>0.546</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.593</v>
+        <v>0.474</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.587</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.791</v>
+        <v>0.672</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.48</v>
+        <v>0.398</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.57</v>
+        <v>2.493</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.727</v>
+        <v>0.719</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.931</v>
+        <v>0.856</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.857</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.79</v>
+        <v>0.721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179</v>
+        <v>0.159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.424</v>
+        <v>0.399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="F8" t="n">
-        <v>0.322</v>
+        <v>0.186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="H8" t="n">
-        <v>0.832</v>
+        <v>0.668</v>
       </c>
       <c r="I8" t="n">
-        <v>0.053</v>
+        <v>0.158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.231</v>
+        <v>0.398</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.548</v>
       </c>
       <c r="L8" t="n">
-        <v>0.182</v>
+        <v>0.211</v>
       </c>
       <c r="M8" t="n">
-        <v>0.426</v>
+        <v>0.46</v>
       </c>
       <c r="N8" t="n">
-        <v>1.172</v>
+        <v>0.73</v>
       </c>
       <c r="O8" t="n">
-        <v>0.182</v>
+        <v>0.147</v>
       </c>
       <c r="P8" t="n">
-        <v>0.426</v>
+        <v>0.384</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.627</v>
+        <v>0.526</v>
       </c>
       <c r="R8" t="n">
-        <v>0.17</v>
+        <v>0.229</v>
       </c>
       <c r="S8" t="n">
-        <v>0.413</v>
+        <v>0.478</v>
       </c>
       <c r="T8" t="n">
-        <v>0.615</v>
+        <v>0.486</v>
       </c>
       <c r="U8" t="n">
-        <v>0.435</v>
+        <v>0.208</v>
       </c>
       <c r="V8" t="n">
-        <v>0.659</v>
+        <v>0.456</v>
       </c>
       <c r="W8" t="n">
-        <v>0.775</v>
+        <v>0.74</v>
       </c>
       <c r="X8" t="n">
-        <v>0.044</v>
+        <v>0.144</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.21</v>
+        <v>0.379</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.194</v>
+        <v>0.159</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.441</v>
+        <v>0.399</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.662</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.303</v>
+        <v>0.165</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.55</v>
+        <v>0.406</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.513</v>
+        <v>2.494</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.097</v>
+        <v>0.05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.312</v>
+        <v>0.224</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.198</v>
+        <v>0.193</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.445</v>
+        <v>0.439</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.966</v>
+        <v>0.89</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.011</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.106</v>
+        <v>0.29</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.838</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="9">
@@ -1297,124 +1297,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.636</v>
+        <v>0.618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231</v>
+        <v>0.236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.481</v>
+        <v>0.486</v>
       </c>
       <c r="E9" t="n">
-        <v>0.364</v>
+        <v>0.353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.231</v>
+        <v>0.228</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481</v>
+        <v>0.478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.636</v>
+        <v>0.529</v>
       </c>
       <c r="I9" t="n">
-        <v>0.231</v>
+        <v>0.249</v>
       </c>
       <c r="J9" t="n">
-        <v>0.481</v>
+        <v>0.499</v>
       </c>
       <c r="K9" t="n">
-        <v>0.364</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
-        <v>0.231</v>
+        <v>0.249</v>
       </c>
       <c r="M9" t="n">
-        <v>0.481</v>
+        <v>0.499</v>
       </c>
       <c r="N9" t="n">
-        <v>0.909</v>
+        <v>0.618</v>
       </c>
       <c r="O9" t="n">
-        <v>0.083</v>
+        <v>0.236</v>
       </c>
       <c r="P9" t="n">
-        <v>0.287</v>
+        <v>0.486</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.455</v>
+        <v>0.471</v>
       </c>
       <c r="R9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="T9" t="n">
-        <v>0.455</v>
+        <v>0.382</v>
       </c>
       <c r="U9" t="n">
-        <v>0.248</v>
+        <v>0.236</v>
       </c>
       <c r="V9" t="n">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
       <c r="W9" t="n">
-        <v>0.455</v>
+        <v>0.618</v>
       </c>
       <c r="X9" t="n">
-        <v>0.248</v>
+        <v>0.236</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.727</v>
+        <v>0.618</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.198</v>
+        <v>0.236</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.445</v>
+        <v>0.486</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.364</v>
+        <v>0.588</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.231</v>
+        <v>0.242</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.481</v>
+        <v>0.492</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.181</v>
+        <v>2.294</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.248</v>
+        <v>0.195</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.498</v>
+        <v>0.441</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.727</v>
+        <v>0.706</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.198</v>
+        <v>0.208</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.445</v>
+        <v>0.456</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.909</v>
+        <v>0.853</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.083</v>
+        <v>0.125</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.287</v>
+        <v>0.354</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.727</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.149</v>
+        <v>0.163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.386</v>
+        <v>0.404</v>
       </c>
       <c r="E10" t="n">
-        <v>0.636</v>
+        <v>0.529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.231</v>
+        <v>0.249</v>
       </c>
       <c r="G10" t="n">
-        <v>0.481</v>
+        <v>0.499</v>
       </c>
       <c r="H10" t="n">
-        <v>0.909</v>
+        <v>0.706</v>
       </c>
       <c r="I10" t="n">
-        <v>0.083</v>
+        <v>0.208</v>
       </c>
       <c r="J10" t="n">
-        <v>0.287</v>
+        <v>0.456</v>
       </c>
       <c r="K10" t="n">
-        <v>0.636</v>
+        <v>0.618</v>
       </c>
       <c r="L10" t="n">
-        <v>0.231</v>
+        <v>0.236</v>
       </c>
       <c r="M10" t="n">
-        <v>0.481</v>
+        <v>0.486</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.794</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.727</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>0.198</v>
+        <v>0.247</v>
       </c>
       <c r="S10" t="n">
-        <v>0.445</v>
+        <v>0.497</v>
       </c>
       <c r="T10" t="n">
-        <v>0.545</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="V10" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.824</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.149</v>
+        <v>0.163</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.386</v>
+        <v>0.404</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.545</v>
+        <v>0.706</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.248</v>
+        <v>0.208</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.498</v>
+        <v>0.456</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.636</v>
+        <v>2.618</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.083</v>
+        <v>0.029</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.287</v>
+        <v>0.169</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.727</v>
+        <v>0.735</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.912</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.284</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.879</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="11">
@@ -1551,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.149</v>
+        <v>0.163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.386</v>
+        <v>0.404</v>
       </c>
       <c r="E11" t="n">
-        <v>0.636</v>
+        <v>0.618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.231</v>
+        <v>0.236</v>
       </c>
       <c r="G11" t="n">
-        <v>0.481</v>
+        <v>0.486</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.794</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="K11" t="n">
-        <v>0.636</v>
+        <v>0.618</v>
       </c>
       <c r="L11" t="n">
-        <v>0.231</v>
+        <v>0.236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.481</v>
+        <v>0.486</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.824</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>0.198</v>
+        <v>0.247</v>
       </c>
       <c r="S11" t="n">
-        <v>0.445</v>
+        <v>0.497</v>
       </c>
       <c r="T11" t="n">
-        <v>0.545</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="V11" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.824</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.149</v>
+        <v>0.163</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.386</v>
+        <v>0.404</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.727</v>
+        <v>0.765</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.198</v>
+        <v>0.18</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.445</v>
+        <v>0.424</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.636</v>
+        <v>2.618</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.083</v>
+        <v>0.029</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.287</v>
+        <v>0.169</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.727</v>
+        <v>0.735</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.912</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.284</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.879</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="12">
@@ -1678,124 +1678,124 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.222</v>
+        <v>1.296</v>
       </c>
       <c r="C12" t="n">
-        <v>0.173</v>
+        <v>0.357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.416</v>
+        <v>0.597</v>
       </c>
       <c r="E12" t="n">
-        <v>1.571</v>
+        <v>1.81</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531</v>
+        <v>1.202</v>
       </c>
       <c r="G12" t="n">
-        <v>0.728</v>
+        <v>1.096</v>
       </c>
       <c r="H12" t="n">
-        <v>1.727</v>
+        <v>1.704</v>
       </c>
       <c r="I12" t="n">
-        <v>1.471</v>
+        <v>1.468</v>
       </c>
       <c r="J12" t="n">
-        <v>1.213</v>
+        <v>1.212</v>
       </c>
       <c r="K12" t="n">
-        <v>1.857</v>
+        <v>1.429</v>
       </c>
       <c r="L12" t="n">
-        <v>0.98</v>
+        <v>0.626</v>
       </c>
       <c r="M12" t="n">
-        <v>0.99</v>
+        <v>0.791</v>
       </c>
       <c r="N12" t="n">
-        <v>1.182</v>
+        <v>1.429</v>
       </c>
       <c r="O12" t="n">
-        <v>0.331</v>
+        <v>0.673</v>
       </c>
       <c r="P12" t="n">
-        <v>0.575</v>
+        <v>0.821</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.375</v>
+        <v>1.158</v>
       </c>
       <c r="R12" t="n">
-        <v>0.234</v>
+        <v>0.133</v>
       </c>
       <c r="S12" t="n">
-        <v>0.484</v>
+        <v>0.365</v>
       </c>
       <c r="T12" t="n">
-        <v>1.167</v>
+        <v>1.421</v>
       </c>
       <c r="U12" t="n">
-        <v>0.139</v>
+        <v>0.454</v>
       </c>
       <c r="V12" t="n">
-        <v>0.373</v>
+        <v>0.674</v>
       </c>
       <c r="W12" t="n">
-        <v>1.727</v>
+        <v>1.321</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.361</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.75</v>
+        <v>0.601</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.222</v>
+        <v>1.296</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.395</v>
+        <v>0.357</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.629</v>
+        <v>0.597</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.778</v>
+        <v>1.667</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.728</v>
+        <v>1.926</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.931</v>
+        <v>1.388</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.491</v>
+        <v>3.378</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.24</v>
+        <v>0.259</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.49</v>
+        <v>0.509</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.091</v>
+        <v>1.065</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.083</v>
+        <v>0.06</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.287</v>
+        <v>0.246</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.164</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.182</v>
+        <v>3.588</v>
       </c>
       <c r="C13" t="n">
-        <v>0.694</v>
+        <v>1.478</v>
       </c>
       <c r="D13" t="n">
-        <v>0.833</v>
+        <v>1.216</v>
       </c>
       <c r="E13" t="n">
-        <v>4.875</v>
+        <v>4.607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.109</v>
+        <v>0.453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.331</v>
+        <v>0.673</v>
       </c>
       <c r="H13" t="n">
-        <v>4.818</v>
+        <v>4.625</v>
       </c>
       <c r="I13" t="n">
-        <v>0.331</v>
+        <v>0.672</v>
       </c>
       <c r="J13" t="n">
-        <v>0.575</v>
+        <v>0.82</v>
       </c>
       <c r="K13" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.273</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.444</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.286</v>
-      </c>
       <c r="U13" t="n">
-        <v>0.776</v>
+        <v>0.653</v>
       </c>
       <c r="V13" t="n">
-        <v>0.881</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="W13" t="n">
-        <v>3.545</v>
+        <v>3.941</v>
       </c>
       <c r="X13" t="n">
-        <v>2.066</v>
+        <v>7.055</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.437</v>
+        <v>2.656</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.273</v>
+        <v>2.645</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.38</v>
+        <v>3.068</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.543</v>
+        <v>1.751</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.909</v>
+        <v>6.333</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.992</v>
+        <v>2.283</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.73</v>
+        <v>1.511</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.545</v>
+        <v>4.382</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.926</v>
+        <v>0.717</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.962</v>
+        <v>0.847</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.235</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.356</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.597</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.818</v>
+        <v>1.588</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.421</v>
+        <v>0.713</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.192</v>
+        <v>0.844</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.515</v>
+        <v>1.461</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=no-disease-found for app=Mediktor.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=no-disease-found for app=Mediktor.xlsx
@@ -856,7 +856,7 @@
         <v>0.076</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.104</v>
+        <v>0.755</v>
       </c>
       <c r="AG4" t="n">
         <v>0.095</v>
@@ -983,7 +983,7 @@
         <v>0.404</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.618</v>
+        <v>0.971</v>
       </c>
       <c r="AG5" t="n">
         <v>0.029</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.33</v>
+        <v>0.849</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.493</v>
+        <v>0.918</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.406</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.494</v>
+        <v>0.88</v>
       </c>
       <c r="AG8" t="n">
         <v>0.05</v>
@@ -1387,7 +1387,7 @@
         <v>0.492</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.294</v>
+        <v>0.735</v>
       </c>
       <c r="AG9" t="n">
         <v>0.195</v>
@@ -1514,7 +1514,7 @@
         <v>0.456</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.618</v>
+        <v>0.971</v>
       </c>
       <c r="AG10" t="n">
         <v>0.029</v>
@@ -1641,7 +1641,7 @@
         <v>0.424</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.618</v>
+        <v>0.971</v>
       </c>
       <c r="AG11" t="n">
         <v>0.029</v>
@@ -1768,7 +1768,7 @@
         <v>1.388</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.378</v>
+        <v>1.273</v>
       </c>
       <c r="AG12" t="n">
         <v>0.259</v>
@@ -1895,7 +1895,7 @@
         <v>1.511</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.382</v>
+        <v>1.559</v>
       </c>
       <c r="AG13" t="n">
         <v>0.717</v>
